--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A69B28-2263-4907-ADF8-D4947303F0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D5EA7-7945-463D-9E62-48F393A68579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>Catégorie</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
-    <t>Resistance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Index Inventaire Club SONIA </t>
   </si>
   <si>
@@ -240,9 +237,6 @@
     <t>Panasonic Electronic Components</t>
   </si>
   <si>
-    <t>Git SONIA (SOON)</t>
-  </si>
-  <si>
     <t>Components\Index Folder\Components Index</t>
   </si>
   <si>
@@ -250,6 +244,36 @@
   </si>
   <si>
     <t>EXB-28V203JX</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1% 20W TO220-2</t>
+  </si>
+  <si>
+    <t>100 Ohms ±1% 20W Through Hole Resistor TO-220-2, Variant Automotive AEC-Q200, Current Sense, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>Bourns Inc.</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00002</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00001</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Resistors</t>
+  </si>
+  <si>
+    <t>PWR220T-20-1000F</t>
+  </si>
+  <si>
+    <t>PWR Resistor</t>
+  </si>
+  <si>
+    <t>TYP Resistor</t>
   </si>
 </sst>
 </file>
@@ -299,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -344,6 +368,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -352,7 +411,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,10 +468,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,13 +1202,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M6" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M7" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1438,7 +1514,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="8"/>
@@ -1554,45 +1630,86 @@
         <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="E7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681D5EA7-7945-463D-9E62-48F393A68579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A510D-EE4D-465A-B425-DF1D9176B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
   <si>
     <t>Catégorie</t>
   </si>
@@ -274,6 +274,30 @@
   </si>
   <si>
     <t>TYP Resistor</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>Transistor Mosfet N</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE N-CHANNEL 40 V (D-S)</t>
+  </si>
+  <si>
+    <t>Vishay Siliconix</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00003</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Transistors</t>
+  </si>
+  <si>
+    <t>SQJQ144AER-T1_GE3</t>
+  </si>
+  <si>
+    <t>N-Channel 40 V 575A (Tc) 600W (Tc) Surface Mount PowerPAK® 8 x 8</t>
   </si>
 </sst>
 </file>
@@ -411,7 +435,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -471,16 +495,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1203,8 +1224,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M7" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M7" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M8" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1514,7 +1535,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1665,7 @@
       <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>74</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1669,10 +1690,10 @@
       <c r="B7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -1681,23 +1702,60 @@
       <c r="F7" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>73</v>
       </c>
       <c r="H7" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="25" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="M7" s="27"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E41A510D-EE4D-465A-B425-DF1D9176B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137085B-5A07-400D-A2FE-D8DFC47134D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Catégorie</t>
   </si>
@@ -298,6 +298,27 @@
   </si>
   <si>
     <t>N-Channel 40 V 575A (Tc) 600W (Tc) Surface Mount PowerPAK® 8 x 8</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>TVS Diodes</t>
+  </si>
+  <si>
+    <t>TVS DIODE 24VWM 40VC SOT23</t>
+  </si>
+  <si>
+    <t>40V Clamp 8A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23</t>
+  </si>
+  <si>
+    <t>Index Sonia 1\E00004</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Diodes</t>
+  </si>
+  <si>
+    <t>CDSOT23-T24CANCT-ND</t>
   </si>
 </sst>
 </file>
@@ -435,7 +456,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,6 +535,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1224,8 +1254,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M8" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M8" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M9" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1535,7 +1565,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,17 +1787,55 @@
       </c>
       <c r="M8" s="26"/>
     </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
+    <hyperlink ref="G9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0137085B-5A07-400D-A2FE-D8DFC47134D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23199258-45FD-48F6-A904-3AFD26D5DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1365" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>Catégorie</t>
   </si>
@@ -319,6 +319,30 @@
   </si>
   <si>
     <t>CDSOT23-T24CANCT-ND</t>
+  </si>
+  <si>
+    <t>E00005</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>B5B-XH-A</t>
+  </si>
+  <si>
+    <t>JST Sales America Inc.</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Connectors</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00005</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole 5 position 0.098" (2.50mm)</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 5POS 2.5MM</t>
   </si>
 </sst>
 </file>
@@ -562,7 +586,9 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -572,23 +598,6 @@
           <color indexed="64"/>
         </left>
         <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -610,6 +619,44 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -634,10 +681,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -655,6 +714,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -695,18 +755,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -772,10 +820,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -790,7 +838,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -814,13 +861,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -874,19 +934,29 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -904,9 +974,36 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -931,13 +1028,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -951,56 +1049,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1026,45 +1074,50 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1109,6 +1162,9 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1117,9 +1173,7 @@
       </fill>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1173,36 +1227,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1254,22 +1278,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M9" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M10" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="24" totalsRowDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="22" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="20" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="18" totalsRowDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="16" totalsRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="14" totalsRowDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="12" totalsRowDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="10" totalsRowDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1565,7 +1589,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,41 +1812,78 @@
       <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="K9" s="22" t="s">
         <v>67</v>
       </c>
       <c r="L9" s="26" t="s">
         <v>93</v>
       </c>
       <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1831,11 +1892,12 @@
     <hyperlink ref="G7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23199258-45FD-48F6-A904-3AFD26D5DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF546C-0B09-4C52-92B1-83127382F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="-15870" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="-15405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
   <si>
     <t>Catégorie</t>
   </si>
@@ -343,13 +343,46 @@
   </si>
   <si>
     <t>CONN HEADER VERT 5POS 2.5MM</t>
+  </si>
+  <si>
+    <t>E00006</t>
+  </si>
+  <si>
+    <t>TERM BLK 8POS SIDE ENTRY 5MM PCB</t>
+  </si>
+  <si>
+    <t>8 Position Wire to Board Terminal Block Horizontal with Board 0.197" (5.00mm) Through Hole</t>
+  </si>
+  <si>
+    <t>Pheonix Contact</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00006</t>
+  </si>
+  <si>
+    <t>E00007</t>
+  </si>
+  <si>
+    <t>Testpoint</t>
+  </si>
+  <si>
+    <t>TESTPOINT_A</t>
+  </si>
+  <si>
+    <t>Format de testpoint type A</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Mechanicals,holes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +412,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -480,7 +519,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -561,6 +600,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -568,6 +610,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,9 +637,7 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -598,6 +647,23 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -622,6 +688,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -658,63 +730,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -755,6 +770,18 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -820,10 +847,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -838,6 +865,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -861,26 +889,13 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -934,6 +949,63 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1007,6 +1079,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1052,7 +1125,44 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1074,44 +1184,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1123,57 +1195,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1227,6 +1248,36 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1278,22 +1329,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M10" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M10" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M12" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="24" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="22" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="20" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="18" totalsRowDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="16" totalsRowDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="14" totalsRowDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="12" totalsRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="10" totalsRowDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="8" totalsRowDxfId="9" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="6" totalsRowDxfId="7" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,41 +1900,115 @@
       <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="22" t="s">
         <v>97</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="K10" s="22" t="s">
         <v>67</v>
       </c>
       <c r="L10" s="26" t="s">
         <v>96</v>
       </c>
       <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="28">
+        <v>1935226</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1893,11 +2018,12 @@
     <hyperlink ref="G6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
     <hyperlink ref="G9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
     <hyperlink ref="G10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{837161FE-366A-4424-975D-C514C284F7E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EF546C-0B09-4C52-92B1-83127382F274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658857F-ED3F-4B70-851E-B85E8A9127A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="-15405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
   <si>
     <t>Catégorie</t>
   </si>
@@ -376,6 +376,24 @@
   </si>
   <si>
     <t>Components\Index Folder\Components Index\Mechanicals,holes</t>
+  </si>
+  <si>
+    <t>E00008</t>
+  </si>
+  <si>
+    <t>RES 100 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>100 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>Yaego</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00008</t>
+  </si>
+  <si>
+    <t>RC0603FR-07100RL</t>
   </si>
 </sst>
 </file>
@@ -603,6 +621,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -610,15 +637,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,8 +1347,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M12" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M12" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M13" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A5:M13" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
@@ -1974,41 +1992,78 @@
       <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="31" t="s">
         <v>111</v>
       </c>
       <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2019,11 +2074,12 @@
     <hyperlink ref="G9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
     <hyperlink ref="G10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
     <hyperlink ref="G11" r:id="rId5" xr:uid="{837161FE-366A-4424-975D-C514C284F7E6}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{6056E96B-A4B2-4B81-96ED-C55A065C1BAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1658857F-ED3F-4B70-851E-B85E8A9127A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB606664-4064-40BA-9A1B-34AA148B2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
   <si>
     <t>Catégorie</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Panasonic Electronic Components</t>
   </si>
   <si>
-    <t>Components\Index Folder\Components Index</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
@@ -394,6 +391,57 @@
   </si>
   <si>
     <t>RC0603FR-07100RL</t>
+  </si>
+  <si>
+    <t>E00009</t>
+  </si>
+  <si>
+    <t>TYP Capacitor</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <t>SM (D-S)</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>TH (2.50mm)</t>
+  </si>
+  <si>
+    <t>TH (5.00mm)</t>
+  </si>
+  <si>
+    <t>TEST-POINT</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>10uF 25V 0603</t>
+  </si>
+  <si>
+    <t>10 µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Murata Electronic</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00009</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\Capacitors</t>
+  </si>
+  <si>
+    <t>GRM188R61E106KA73D</t>
   </si>
 </sst>
 </file>
@@ -537,7 +585,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -591,9 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -609,9 +654,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -638,13 +680,91 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -784,42 +904,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -1347,22 +1431,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:M13" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A5:M13" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N14" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{29FE76FB-ABD4-4B4C-8C3C-C11887EE63FF}" name="Format" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="4" totalsRowDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,30 +1740,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14" style="11" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="37" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="22.140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="25.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.85546875" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="12" max="12" width="13.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1697,7 +1783,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1794,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -1725,10 +1811,10 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
@@ -1738,38 +1824,41 @@
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="G5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="K5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="L5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>55</v>
       </c>
@@ -1777,309 +1866,376 @@
         <v>61</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="B8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="19" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="M8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="C9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="H9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="J9" s="23"/>
+      <c r="K9" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="C10" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>101</v>
+      <c r="D10" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="E10" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="L10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="J11" s="23"/>
+      <c r="K11" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="26">
+        <v>1935226</v>
+      </c>
+      <c r="N11" s="24"/>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="C12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="28">
-        <v>1935226</v>
-      </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="C13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="33" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="C14" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="19" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
-    <hyperlink ref="G6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
-    <hyperlink ref="G9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
-    <hyperlink ref="G10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{837161FE-366A-4424-975D-C514C284F7E6}"/>
-    <hyperlink ref="G13" r:id="rId6" xr:uid="{6056E96B-A4B2-4B81-96ED-C55A065C1BAB}"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
+    <hyperlink ref="H9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{837161FE-366A-4424-975D-C514C284F7E6}"/>
+    <hyperlink ref="H13" r:id="rId6" xr:uid="{6056E96B-A4B2-4B81-96ED-C55A065C1BAB}"/>
+    <hyperlink ref="H14" r:id="rId7" display="E00009" xr:uid="{4361E5C3-0D4B-4AD1-80D1-D9CC40FE4173}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <ignoredErrors>
+    <ignoredError sqref="D6" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB606664-4064-40BA-9A1B-34AA148B2C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408BDB8-A32C-476A-B1C2-E28E2B8E7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t>Catégorie</t>
   </si>
@@ -309,9 +309,6 @@
     <t>40V Clamp 8A (8/20µs) Ipp Tvs Diode Surface Mount SOT-23</t>
   </si>
   <si>
-    <t>Index Sonia 1\E00004</t>
-  </si>
-  <si>
     <t>Components\Index Folder\Components Index\Diodes</t>
   </si>
   <si>
@@ -442,6 +439,108 @@
   </si>
   <si>
     <t>GRM188R61E106KA73D</t>
+  </si>
+  <si>
+    <t>E00010</t>
+  </si>
+  <si>
+    <t>100pF 50V 0603</t>
+  </si>
+  <si>
+    <t>100 pF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>Vishay Vitramon</t>
+  </si>
+  <si>
+    <t>VJ0603Y101KXAPW1BC</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00010</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00004</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 200MA SOT323</t>
+  </si>
+  <si>
+    <t>Diode 40 V 200mA Surface Mount SOT-323</t>
+  </si>
+  <si>
+    <t>Diodes Incorporated</t>
+  </si>
+  <si>
+    <t>E00011</t>
+  </si>
+  <si>
+    <t>Diode Schottky</t>
+  </si>
+  <si>
+    <t>BAS40W-FDICT-ND</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00011</t>
+  </si>
+  <si>
+    <t>E00012</t>
+  </si>
+  <si>
+    <t>XT90</t>
+  </si>
+  <si>
+    <t>XT90 90D</t>
+  </si>
+  <si>
+    <t>XT90 PCB right angle connector</t>
+  </si>
+  <si>
+    <t>E00013</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>DPJ0008</t>
+  </si>
+  <si>
+    <t>BATT PROT LI-ION 2-5CEL 8WSON</t>
+  </si>
+  <si>
+    <t>Battery Battery Protection IC Lithium Ion 8-WSON (3x4)</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Components\Index Folder\Components Index\ICs</t>
+  </si>
+  <si>
+    <t>BQ771806DPJR</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00013</t>
+  </si>
+  <si>
+    <t>E00014</t>
+  </si>
+  <si>
+    <t>SOT-669 LFPAK56</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 100A LFPAK56</t>
+  </si>
+  <si>
+    <t>N-Channel 30 V 100A (Tc) 142W (Tc) Surface Mount LFPAK56, Power-SO8</t>
+  </si>
+  <si>
+    <t>Nexperia</t>
+  </si>
+  <si>
+    <t>Index Sonia 1\E00014</t>
+  </si>
+  <si>
+    <t>PSMN2R0-30YLDX</t>
   </si>
 </sst>
 </file>
@@ -585,7 +684,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,6 +771,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -681,14 +792,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -696,75 +801,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -909,6 +945,42 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1224,6 +1296,39 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1431,23 +1536,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N14" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N19" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
     <tableColumn id="3" xr3:uid="{4CF2A288-7D34-4C93-AD5C-80D708CDCACE}" name="Type" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{29FE76FB-ABD4-4B4C-8C3C-C11887EE63FF}" name="Format" dataDxfId="1" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Lien hypertexte"/>
-    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{29FE76FB-ABD4-4B4C-8C3C-C11887EE63FF}" name="Format" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{D476CC18-DFEB-43A2-9C0B-88F25CEECD22}" name="Nom" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{FDF2C614-A319-47DA-BAA6-E0680EB3C8FE}" name="Description" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{7F54C9C2-9934-4B34-900B-0144C1C4C6A6}" name="Manufacturier" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{1582891F-3044-43B0-83A2-EC2093241521}" name="REPERTOIRE" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{AE5A17E1-4DA5-487E-AEEE-75CFF183D738}" name="VERSION" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{4231D187-F304-42F4-B806-C0BCA06BFDF7}" name="Remplacement:" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="15" xr3:uid="{B50E332D-CE79-444C-801D-D1A6D193ACA5}" name="Library Altium" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Lien hypertexte"/>
+    <tableColumn id="9" xr3:uid="{45D2F931-B221-4B91-85F2-AC356CDB3888}" name="Fournisseur" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{2333A26F-819A-4791-AE56-AF27EFE5D125}" name="Manufacturer Part Number 1" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{9DFF3D69-BC3A-4360-8CCA-B95DF4D68381}" name="Colonne2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1740,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1919,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>47</v>
       </c>
@@ -1825,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>2</v>
@@ -1868,8 +1973,8 @@
       <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>121</v>
+      <c r="D6" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>63</v>
@@ -1887,7 +1992,7 @@
         <v>62</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="31" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -1909,7 +2014,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>69</v>
@@ -1920,14 +2025,14 @@
       <c r="G7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="33" t="s">
         <v>72</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="23"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="32" t="s">
         <v>74</v>
       </c>
       <c r="L7" s="21" t="s">
@@ -1949,7 +2054,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>80</v>
@@ -1960,14 +2065,14 @@
       <c r="G8" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J8" s="23"/>
-      <c r="K8" s="35" t="s">
+      <c r="K8" s="32" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="21" t="s">
@@ -1989,7 +2094,7 @@
         <v>87</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>88</v>
@@ -2000,95 +2105,95 @@
       <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="23" t="s">
-        <v>90</v>
+      <c r="H9" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="23"/>
-      <c r="K9" s="35" t="s">
-        <v>91</v>
+      <c r="K9" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="23"/>
-      <c r="K10" s="35" t="s">
-        <v>97</v>
+      <c r="K10" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="33" t="s">
         <v>104</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J11" s="23"/>
-      <c r="K11" s="35" t="s">
-        <v>97</v>
+      <c r="K11" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>66</v>
@@ -2100,47 +2205,47 @@
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>110</v>
-      </c>
       <c r="H12" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>61</v>
@@ -2149,93 +2254,289 @@
         <v>77</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J13" s="23"/>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="31" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M13" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="24"/>
+    </row>
+    <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="B14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="D14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="N14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="C15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="L15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="31" t="s">
+      <c r="J16" s="23"/>
+      <c r="K16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="N14" s="24"/>
+      <c r="M16" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J18" s="23"/>
+      <c r="K18" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="N19" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{8AE3E3AC-BE01-4FBC-AAFC-FAF4AD21AD06}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{66F47E82-05E1-4E49-B6FA-4DD02A763104}"/>
-    <hyperlink ref="H9" r:id="rId3" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
+    <hyperlink ref="H9" r:id="rId3" display="Index Sonia 1\E00004" xr:uid="{7BBADA3A-3752-4D1F-BC20-05070304FF39}"/>
     <hyperlink ref="H10" r:id="rId4" xr:uid="{21342783-6BAC-4360-9548-59CE5836A3D9}"/>
     <hyperlink ref="H11" r:id="rId5" xr:uid="{837161FE-366A-4424-975D-C514C284F7E6}"/>
     <hyperlink ref="H13" r:id="rId6" xr:uid="{6056E96B-A4B2-4B81-96ED-C55A065C1BAB}"/>
     <hyperlink ref="H14" r:id="rId7" display="E00009" xr:uid="{4361E5C3-0D4B-4AD1-80D1-D9CC40FE4173}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{5714FE37-EFFA-4D8E-B146-67945381C944}"/>
+    <hyperlink ref="H16" r:id="rId9" xr:uid="{37AC8A35-DE26-4F48-A90F-C1BCCE3CFD91}"/>
+    <hyperlink ref="H18" r:id="rId10" display="Index\SONIA_1\E00013" xr:uid="{82673C7B-3805-41E5-B539-D9723A02550E}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{75B9F5C7-65DF-4F4F-9E06-3949C0EA13A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408BDB8-A32C-476A-B1C2-E28E2B8E7273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBCE7A-DE2F-45B7-9EA3-CBF2F378F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
   <si>
     <t>Catégorie</t>
   </si>
@@ -537,10 +537,34 @@
     <t>Nexperia</t>
   </si>
   <si>
-    <t>Index Sonia 1\E00014</t>
-  </si>
-  <si>
     <t>PSMN2R0-30YLDX</t>
+  </si>
+  <si>
+    <t>E00015</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00015</t>
+  </si>
+  <si>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>Small Signal Field-Effect Transistor, 0.2A I(D), 60V, 1-Element, N-Channel, Silicon, Metal-oxide Semiconductor FET</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>N-Channel 60 V 115mA (Ta) 200mW (Ta) Surface Mount SOT-23-3</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00014</t>
+  </si>
+  <si>
+    <t>PSMN2R0-30YL</t>
   </si>
 </sst>
 </file>
@@ -684,7 +708,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -790,9 +814,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1557,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N19" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N19" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N20" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N20" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
@@ -1845,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,10 +2425,10 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -2416,30 +2437,34 @@
       <c r="D17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="35" t="s">
+      <c r="G17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L17" s="35"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="24"/>
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -2448,26 +2473,26 @@
       <c r="D18" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="21" t="s">
         <v>157</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="24" t="s">
@@ -2476,10 +2501,10 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -2488,32 +2513,74 @@
       <c r="D19" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="21" t="s">
         <v>165</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="23"/>
+      <c r="J19" s="24" t="s">
+        <v>175</v>
+      </c>
       <c r="K19" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M19" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="N19" s="24"/>
+      <c r="B20" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="23"/>
+      <c r="K20" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="N20" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2528,15 +2595,16 @@
     <hyperlink ref="H15" r:id="rId8" xr:uid="{5714FE37-EFFA-4D8E-B146-67945381C944}"/>
     <hyperlink ref="H16" r:id="rId9" xr:uid="{37AC8A35-DE26-4F48-A90F-C1BCCE3CFD91}"/>
     <hyperlink ref="H18" r:id="rId10" display="Index\SONIA_1\E00013" xr:uid="{82673C7B-3805-41E5-B539-D9723A02550E}"/>
-    <hyperlink ref="H19" r:id="rId11" xr:uid="{75B9F5C7-65DF-4F4F-9E06-3949C0EA13A1}"/>
+    <hyperlink ref="H19" r:id="rId11" display="Index Sonia 1\E00014" xr:uid="{75B9F5C7-65DF-4F4F-9E06-3949C0EA13A1}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{32464F48-027D-48CC-AA08-68B8E6BA02C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBCE7A-DE2F-45B7-9EA3-CBF2F378F3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D5483-223E-44BF-822E-9E62AB456C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
   <si>
     <t>Catégorie</t>
   </si>
@@ -300,9 +300,6 @@
     <t>E00004</t>
   </si>
   <si>
-    <t>TVS Diodes</t>
-  </si>
-  <si>
     <t>TVS DIODE 24VWM 40VC SOT23</t>
   </si>
   <si>
@@ -565,6 +562,30 @@
   </si>
   <si>
     <t>PSMN2R0-30YL</t>
+  </si>
+  <si>
+    <t>E00016</t>
+  </si>
+  <si>
+    <t>SOD123</t>
+  </si>
+  <si>
+    <t>DIODE RECTF 100V SOD123</t>
+  </si>
+  <si>
+    <t>Diode 100 V 300mA Surface Mount SOD-123</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00016</t>
+  </si>
+  <si>
+    <t>TYP Diode</t>
+  </si>
+  <si>
+    <t>TVS Diode</t>
+  </si>
+  <si>
+    <t>1N4148W-7-F</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N20" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N20" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N21" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N21" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
@@ -1866,10 +1887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>2</v>
@@ -1995,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>63</v>
@@ -2035,7 +2056,7 @@
         <v>76</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>69</v>
@@ -2075,7 +2096,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="22" t="s">
         <v>80</v>
@@ -2112,109 +2133,109 @@
         <v>61</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>88</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>89</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L9" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="H11" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>104</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L11" s="21" t="s">
         <v>66</v>
@@ -2226,47 +2247,47 @@
     </row>
     <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="G12" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>109</v>
-      </c>
       <c r="H12" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" s="24"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>61</v>
@@ -2275,19 +2296,19 @@
         <v>77</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="33" t="s">
         <v>114</v>
-      </c>
-      <c r="H13" s="33" t="s">
-        <v>115</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>62</v>
@@ -2300,161 +2321,161 @@
         <v>66</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="H14" s="33" t="s">
         <v>130</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>131</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L14" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="G15" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="H15" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I15" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L15" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="G16" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="H16" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L16" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="G17" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="24"/>
@@ -2462,47 +2483,47 @@
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>157</v>
-      </c>
       <c r="H18" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>61</v>
@@ -2511,25 +2532,25 @@
         <v>79</v>
       </c>
       <c r="D19" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>165</v>
-      </c>
       <c r="H19" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I19" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K19" s="32" t="s">
         <v>83</v>
@@ -2538,49 +2559,89 @@
         <v>66</v>
       </c>
       <c r="M19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="N19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="E20" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>169</v>
       </c>
+      <c r="G20" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="H20" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="35" t="s">
+      <c r="L20" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="N21" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2597,14 +2658,15 @@
     <hyperlink ref="H18" r:id="rId10" display="Index\SONIA_1\E00013" xr:uid="{82673C7B-3805-41E5-B539-D9723A02550E}"/>
     <hyperlink ref="H19" r:id="rId11" display="Index Sonia 1\E00014" xr:uid="{75B9F5C7-65DF-4F4F-9E06-3949C0EA13A1}"/>
     <hyperlink ref="H20" r:id="rId12" xr:uid="{32464F48-027D-48CC-AA08-68B8E6BA02C1}"/>
+    <hyperlink ref="H21" r:id="rId13" xr:uid="{223CD52A-EFCF-4FEF-9932-71DCEA5C5D4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80D5483-223E-44BF-822E-9E62AB456C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87E7C0-D5A1-4F62-B765-BB736C50E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="194">
   <si>
     <t>Catégorie</t>
   </si>
@@ -586,6 +586,39 @@
   </si>
   <si>
     <t>1N4148W-7-F</t>
+  </si>
+  <si>
+    <t>E00017</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>0.1 µF ±1% 50V Ceramic Capacitor C0G, NP0 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00017</t>
+  </si>
+  <si>
+    <t>GCM31C5C1H104FA16L</t>
+  </si>
+  <si>
+    <t>0.1UF 50V 1206</t>
+  </si>
+  <si>
+    <t>E00018</t>
+  </si>
+  <si>
+    <t>100R 0.1% 0603</t>
+  </si>
+  <si>
+    <t>100 Ohms ±0.1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Thin Film</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00018</t>
+  </si>
+  <si>
+    <t>YAG1497CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N21" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N21" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N23" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
@@ -1887,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,10 +2637,10 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -2616,32 +2649,112 @@
       <c r="D21" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="21" t="s">
         <v>142</v>
       </c>
       <c r="H21" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M21" s="24" t="s">
         <v>182</v>
       </c>
       <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="N23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2659,14 +2772,16 @@
     <hyperlink ref="H19" r:id="rId11" display="Index Sonia 1\E00014" xr:uid="{75B9F5C7-65DF-4F4F-9E06-3949C0EA13A1}"/>
     <hyperlink ref="H20" r:id="rId12" xr:uid="{32464F48-027D-48CC-AA08-68B8E6BA02C1}"/>
     <hyperlink ref="H21" r:id="rId13" xr:uid="{223CD52A-EFCF-4FEF-9932-71DCEA5C5D4B}"/>
+    <hyperlink ref="H22" r:id="rId14" xr:uid="{D649E74A-843A-4C20-A7A1-A529E97992EA}"/>
+    <hyperlink ref="H23" r:id="rId15" xr:uid="{D2F0A9A1-D0FD-4E67-ADC8-835F7E0B60B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87E7C0-D5A1-4F62-B765-BB736C50E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05914A5-6D81-4B74-8CE1-0A73DE060249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="201">
   <si>
     <t>Catégorie</t>
   </si>
@@ -619,6 +619,27 @@
   </si>
   <si>
     <t>YAG1497CT-ND</t>
+  </si>
+  <si>
+    <t>E00019</t>
+  </si>
+  <si>
+    <t>2512</t>
+  </si>
+  <si>
+    <t>RES SMD 100 OHM 5% 1W 2512</t>
+  </si>
+  <si>
+    <t>100 Ohms ±5% 1W Chip Resistor 2512 (6432 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>CRCW2512100RJNEG</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00019</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1632,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N23" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N23" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N24" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
@@ -1920,10 +1941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2677,10 +2698,10 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="21" t="s">
@@ -2689,26 +2710,26 @@
       <c r="D22" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="21" t="s">
         <v>129</v>
       </c>
       <c r="H22" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M22" s="24" t="s">
@@ -2717,10 +2738,10 @@
       <c r="N22" s="24"/>
     </row>
     <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -2729,32 +2750,72 @@
       <c r="D23" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="21" t="s">
         <v>113</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M23" s="24" t="s">
         <v>193</v>
       </c>
       <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="23"/>
+      <c r="K24" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2774,14 +2835,15 @@
     <hyperlink ref="H21" r:id="rId13" xr:uid="{223CD52A-EFCF-4FEF-9932-71DCEA5C5D4B}"/>
     <hyperlink ref="H22" r:id="rId14" xr:uid="{D649E74A-843A-4C20-A7A1-A529E97992EA}"/>
     <hyperlink ref="H23" r:id="rId15" xr:uid="{D2F0A9A1-D0FD-4E67-ADC8-835F7E0B60B7}"/>
+    <hyperlink ref="H24" r:id="rId16" display="Index SONIA 1\E00018" xr:uid="{42EE1618-EC14-43C7-A722-D6B03216A17D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Index SONIA 1/INDEX_SONIA_1.xlsx
+++ b/Index SONIA 1/INDEX_SONIA_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sonia\hardware_index_sonia1\Index SONIA 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\School_or_internship_BAC\SONIA\hardware_index_sonia1\Index SONIA 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05914A5-6D81-4B74-8CE1-0A73DE060249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC201050-7AF6-4802-ACFC-DF11D04F4C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21600" yWindow="990" windowWidth="28560" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTE" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="206">
   <si>
     <t>Catégorie</t>
   </si>
@@ -640,6 +640,21 @@
   </si>
   <si>
     <t>Index SONIA 1\E00019</t>
+  </si>
+  <si>
+    <t>E00020</t>
+  </si>
+  <si>
+    <t>RES 0.001 OHM 1% 3W 2512</t>
+  </si>
+  <si>
+    <t>1 mOhms ±1% 3W Chip Resistor 2512 (6432 Metric) Automotive AEC-Q200, Current Sense, Moisture Resistant Metal Element</t>
+  </si>
+  <si>
+    <t>Index SONIA 1\E00020</t>
+  </si>
+  <si>
+    <t>CRE2512-FZ-R001E-3</t>
   </si>
 </sst>
 </file>
@@ -783,7 +798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -889,6 +904,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1632,8 +1650,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N24" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A5:N24" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6E488228-7BB2-48E8-8D64-0FE9665C033D}" name="Tableau13" displayName="Tableau13" ref="A5:N26" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A5:N26" xr:uid="{58943F4C-4DE4-4629-A635-9F2408F28BF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{CC1476A6-385C-4BE9-9D3F-2770D445CE3D}" name="Numéro" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{819093A4-4C18-4D06-9052-08A813483FA7}" name="Catégorie" dataDxfId="25" totalsRowDxfId="24"/>
@@ -1941,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,10 +2796,10 @@
       <c r="N23" s="24"/>
     </row>
     <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C24" s="21" t="s">
@@ -2790,32 +2808,88 @@
       <c r="D24" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="21" t="s">
         <v>198</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="21" t="s">
         <v>62</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="35" t="s">
+      <c r="L24" s="21" t="s">
         <v>66</v>
       </c>
       <c r="M24" s="24" t="s">
         <v>199</v>
       </c>
       <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2836,14 +2910,15 @@
     <hyperlink ref="H22" r:id="rId14" xr:uid="{D649E74A-843A-4C20-A7A1-A529E97992EA}"/>
     <hyperlink ref="H23" r:id="rId15" xr:uid="{D2F0A9A1-D0FD-4E67-ADC8-835F7E0B60B7}"/>
     <hyperlink ref="H24" r:id="rId16" display="Index SONIA 1\E00018" xr:uid="{42EE1618-EC14-43C7-A722-D6B03216A17D}"/>
+    <hyperlink ref="H25" r:id="rId17" xr:uid="{24628E5F-4EFD-4084-8B48-06C5FA7C4DF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
   <ignoredErrors>
     <ignoredError sqref="D6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
